--- a/results/mp/deberta/corona/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
@@ -121,16 +121,16 @@
     <t>safety</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>hope</t>
@@ -1465,25 +1465,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6478260869565218</v>
+        <v>0.6408450704225352</v>
       </c>
       <c r="L22">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="M22">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1491,25 +1491,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6408450704225352</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L23">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1523,16 +1523,16 @@
         <v>30</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -1543,13 +1543,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6382978723404256</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1621,25 +1621,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5596330275229358</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L28">
         <v>183</v>
       </c>
       <c r="M28">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="10:17">
